--- a/VRAM_Report/data.xlsx
+++ b/VRAM_Report/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="25875" windowHeight="11880"/>
@@ -286,10 +286,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11665356263456758"/>
-          <c:y val="6.7956906277583898E-2"/>
+          <c:x val="0.11665356263456757"/>
+          <c:y val="6.7956906277583912E-2"/>
           <c:w val="0.73090657482247712"/>
-          <c:h val="0.75927234040065705"/>
+          <c:h val="0.75927234040065694"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1027,25 +1027,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="53539584"/>
-        <c:axId val="53541120"/>
+        <c:axId val="70409600"/>
+        <c:axId val="70423680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53539584"/>
+        <c:axId val="70409600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53541120"/>
+        <c:crossAx val="70423680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53541120"/>
+        <c:axId val="70423680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,7 +1053,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53539584"/>
+        <c:crossAx val="70409600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1066,13 +1066,799 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ko-KR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>map</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>08_55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>09_57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17_25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21_00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27_02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28_49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31_44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36_03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45_31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49_03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59_49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>05_23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>07_24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15_29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20_20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>53487000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54387000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53487000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53487000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55322000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66971000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66971000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67209000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54773000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54199000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76420000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75528000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76751000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60634000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60634000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>08_55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>09_57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17_25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21_00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27_02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28_49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31_44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36_03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45_31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49_03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59_49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>05_23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>07_24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15_29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20_20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>41988616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42862504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39978664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41529800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39126000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39126000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35248000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39104000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47777000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62284000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61967000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65091000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60831000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50989000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32998000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>npc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>08_55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>09_57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17_25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21_00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27_02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28_49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31_44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36_03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45_31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49_03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59_49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>05_23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>07_24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15_29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20_20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1767008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1810712</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1242680</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2291336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6540000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6540000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7638000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4265000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2692000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3741000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30151000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7610000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29801000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30150000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30150000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>effect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>08_55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>09_57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17_25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21_00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27_02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28_49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31_44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36_03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45_31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49_03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59_49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>05_23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>07_24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15_29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20_20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3591872</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3591872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3591872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3591872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3591000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3591000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3591000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3591000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3591000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3591000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3591000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3591000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3591000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3591000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3591000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vertex</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>08_55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>09_57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17_25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21_00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27_02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28_49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31_44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36_03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45_31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49_03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59_49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>05_23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>07_24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15_29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20_20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>66130284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66513092</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66614608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67568000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69619000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76564000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79382000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78368000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74202000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80975000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96548000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87209000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94522000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90195000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84870000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gui</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>08_55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>09_57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17_25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21_00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27_02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28_49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31_44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36_03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45_31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49_03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59_49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>05_23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>07_24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15_29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20_20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>91954000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91878000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93305000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93683000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96082000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96158000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96233000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97745000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96838000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98199000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98728000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95477000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97972000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98199000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98350000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="72118656"/>
+        <c:axId val="72120192"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="72118656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72120192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="72120192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72118656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ko-KR"/>
   <c:chart>
@@ -1812,25 +2598,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="148520320"/>
-        <c:axId val="148653184"/>
+        <c:axId val="68285568"/>
+        <c:axId val="86551936"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="148520320"/>
+        <c:axId val="68285568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148653184"/>
+        <c:crossAx val="86551936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148653184"/>
+        <c:axId val="86551936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1838,7 +2624,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148520320"/>
+        <c:crossAx val="68285568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1851,7 +2637,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1914,6 +2700,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>118383</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2234,8 +3050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
